--- a/Logs/Pruebas a pie,region1.xlsx
+++ b/Logs/Pruebas a pie,region1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WVALDOGRAELL\Documents\GitHub\RETO_I2C\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B44B71D8-BD0D-4B14-93F0-2BC7F531E35D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A35AF8-5871-422A-A6A1-2F67103EDD84}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas a pie,r1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="5">
   <si>
     <t>Column1</t>
   </si>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,6 +593,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA"/>
+              <a:t>Pruebas a pie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1875,16 +1900,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>234</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2208,10 +2233,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E215" workbookViewId="0">
       <selection activeCell="B306" sqref="A232:B306"/>
     </sheetView>
   </sheetViews>
